--- a/Win32/Debug/Модель/test.xlsx
+++ b/Win32/Debug/Модель/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E9A70-4609-45A0-99C5-9505A505BB6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EFB0B0-D6A3-4F3C-8F6D-B0CA40B0F546}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,12 +54,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -340,13 +356,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -354,6 +377,101 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
